--- a/2025/2025.10 Invoicing/ethylene_oxide_invoice_october_2025.xlsx
+++ b/2025/2025.10 Invoicing/ethylene_oxide_invoice_october_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mzabriskie/Desktop/repos/eto_billing/2025/2025.10 Invoicing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3CECBF-AF4C-7240-B25E-49C7755D5AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA06AF4-B538-6E4B-AE75-88D81930C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
